--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Tnfrsf1b</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H2">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I2">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J2">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N2">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O2">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P2">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q2">
-        <v>1.832111060691111</v>
+        <v>0.8138651143266667</v>
       </c>
       <c r="R2">
-        <v>16.48899954622</v>
+        <v>7.32478602894</v>
       </c>
       <c r="S2">
-        <v>0.02111333487796505</v>
+        <v>0.005985768590216968</v>
       </c>
       <c r="T2">
-        <v>0.02193139914964677</v>
+        <v>0.006020508857976231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H3">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I3">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J3">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>36.600522</v>
       </c>
       <c r="O3">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P3">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q3">
-        <v>1.999153045437333</v>
+        <v>0.8610801474706666</v>
       </c>
       <c r="R3">
-        <v>17.992377408936</v>
+        <v>7.749721327236</v>
       </c>
       <c r="S3">
-        <v>0.02303833464369788</v>
+        <v>0.00633302301531077</v>
       </c>
       <c r="T3">
-        <v>0.0239309855943881</v>
+        <v>0.006369778682016137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H4">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I4">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J4">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N4">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O4">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P4">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q4">
-        <v>13.828356183948</v>
+        <v>8.043920056121999</v>
       </c>
       <c r="R4">
-        <v>124.455205655532</v>
+        <v>72.395280505098</v>
       </c>
       <c r="S4">
-        <v>0.1593586334298634</v>
+        <v>0.05916096312100368</v>
       </c>
       <c r="T4">
-        <v>0.1655331958638185</v>
+        <v>0.05950432215146782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H5">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I5">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J5">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N5">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O5">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P5">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q5">
-        <v>0.3007819685726666</v>
+        <v>0.3016669751736667</v>
       </c>
       <c r="R5">
-        <v>1.804691811436</v>
+        <v>1.810001851042</v>
       </c>
       <c r="S5">
-        <v>0.003466225691215861</v>
+        <v>0.002218683013823745</v>
       </c>
       <c r="T5">
-        <v>0.00240035281387192</v>
+        <v>0.001487706553351526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H6">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I6">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J6">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N6">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O6">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P6">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q6">
-        <v>14.37168507722844</v>
+        <v>7.405822513932223</v>
       </c>
       <c r="R6">
-        <v>129.345165695056</v>
+        <v>66.65240262539</v>
       </c>
       <c r="S6">
-        <v>0.1656199814009722</v>
+        <v>0.05446791981653155</v>
       </c>
       <c r="T6">
-        <v>0.1720371480988835</v>
+        <v>0.05478404131207499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.0837</v>
       </c>
       <c r="I7">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J7">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N7">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O7">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P7">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q7">
-        <v>0.3119435295</v>
+        <v>0.321720759</v>
       </c>
       <c r="R7">
-        <v>2.8074917655</v>
+        <v>2.895486830999999</v>
       </c>
       <c r="S7">
-        <v>0.00359485204945132</v>
+        <v>0.002366173436044357</v>
       </c>
       <c r="T7">
-        <v>0.003734139378555692</v>
+        <v>0.002379906258737735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.0837</v>
       </c>
       <c r="I8">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J8">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>36.600522</v>
       </c>
       <c r="O8">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P8">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q8">
         <v>0.3403848546</v>
@@ -948,10 +948,10 @@
         <v>3.0634636914</v>
       </c>
       <c r="S8">
-        <v>0.003922611230700329</v>
+        <v>0.002503443058787328</v>
       </c>
       <c r="T8">
-        <v>0.004074598025684688</v>
+        <v>0.002517972568385224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.0837</v>
       </c>
       <c r="I9">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J9">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N9">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O9">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P9">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q9">
-        <v>2.3544785727</v>
+        <v>3.1797604053</v>
       </c>
       <c r="R9">
-        <v>21.1903071543</v>
+        <v>28.6178436477</v>
       </c>
       <c r="S9">
-        <v>0.02713312289575737</v>
+        <v>0.02338631994837019</v>
       </c>
       <c r="T9">
-        <v>0.02818443186937355</v>
+        <v>0.02352204972219373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.0837</v>
       </c>
       <c r="I10">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J10">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N10">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O10">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P10">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q10">
-        <v>0.05121250064999999</v>
+        <v>0.11924891055</v>
       </c>
       <c r="R10">
-        <v>0.3072750039</v>
+        <v>0.7154934633</v>
       </c>
       <c r="S10">
-        <v>0.0005901752897848761</v>
+        <v>0.0008770450663416458</v>
       </c>
       <c r="T10">
-        <v>0.0004086949447933629</v>
+        <v>0.0005880901799182135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.0837</v>
       </c>
       <c r="I11">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J11">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N11">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O11">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P11">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q11">
-        <v>2.4469882116</v>
+        <v>2.9275205415</v>
       </c>
       <c r="R11">
-        <v>22.0228939044</v>
+        <v>26.3476848735</v>
       </c>
       <c r="S11">
-        <v>0.0281992083681078</v>
+        <v>0.02153116062607415</v>
       </c>
       <c r="T11">
-        <v>0.0292918242428142</v>
+        <v>0.02165612340638277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H12">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I12">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J12">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N12">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O12">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P12">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q12">
-        <v>2.267020716981111</v>
+        <v>1.48278676269</v>
       </c>
       <c r="R12">
-        <v>20.40318645283</v>
+        <v>13.34508086421</v>
       </c>
       <c r="S12">
-        <v>0.02612525441271622</v>
+        <v>0.01090551526765261</v>
       </c>
       <c r="T12">
-        <v>0.02713751218000733</v>
+        <v>0.01096880881379307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H13">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I13">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J13">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>36.600522</v>
       </c>
       <c r="O13">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P13">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q13">
-        <v>2.473715413689333</v>
+        <v>1.568808174486</v>
       </c>
       <c r="R13">
-        <v>22.263438723204</v>
+        <v>14.119273570374</v>
       </c>
       <c r="S13">
-        <v>0.02850721391437106</v>
+        <v>0.01153818062675282</v>
       </c>
       <c r="T13">
-        <v>0.0296117638740685</v>
+        <v>0.01160514604287053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H14">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I14">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J14">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N14">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O14">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P14">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q14">
-        <v>17.110955019822</v>
+        <v>14.655276371223</v>
       </c>
       <c r="R14">
-        <v>153.998595178398</v>
+        <v>131.897487341007</v>
       </c>
       <c r="S14">
-        <v>0.1971874583187226</v>
+        <v>0.1077857883813969</v>
       </c>
       <c r="T14">
-        <v>0.2048277489410547</v>
+        <v>0.1084113566927301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H15">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I15">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J15">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N15">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O15">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P15">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q15">
-        <v>0.3721821065756667</v>
+        <v>0.5496092530005</v>
       </c>
       <c r="R15">
-        <v>2.233092639454</v>
+        <v>3.297655518003</v>
       </c>
       <c r="S15">
-        <v>0.004289044272651422</v>
+        <v>0.004042234696623868</v>
       </c>
       <c r="T15">
-        <v>0.002970152669161247</v>
+        <v>0.002710463374390794</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H16">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I16">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J16">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N16">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O16">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P16">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q16">
-        <v>17.78326025482045</v>
+        <v>13.492721824765</v>
       </c>
       <c r="R16">
-        <v>160.049342293384</v>
+        <v>121.434496422885</v>
       </c>
       <c r="S16">
-        <v>0.2049351357774116</v>
+        <v>0.09923549870058243</v>
       </c>
       <c r="T16">
-        <v>0.2128756204787038</v>
+        <v>0.0998114427492242</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H17">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I17">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J17">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N17">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O17">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P17">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q17">
-        <v>0.5060696775625</v>
+        <v>3.73169558657</v>
       </c>
       <c r="R17">
-        <v>3.036418065375</v>
+        <v>33.58526027913</v>
       </c>
       <c r="S17">
-        <v>0.005831970999580299</v>
+        <v>0.02744566124918877</v>
       </c>
       <c r="T17">
-        <v>0.00403862565404724</v>
+        <v>0.027604950671467</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H18">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I18">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J18">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>36.600522</v>
       </c>
       <c r="O18">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P18">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q18">
-        <v>0.5522103756749999</v>
+        <v>3.948183709357999</v>
       </c>
       <c r="R18">
-        <v>3.31326225405</v>
+        <v>35.533653384222</v>
       </c>
       <c r="S18">
-        <v>0.006363698596042066</v>
+        <v>0.02903787571166949</v>
       </c>
       <c r="T18">
-        <v>0.004406845714158977</v>
+        <v>0.02920640604527315</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H19">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I19">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J19">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N19">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O19">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P19">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q19">
-        <v>3.819698437162499</v>
+        <v>36.882599393619</v>
       </c>
       <c r="R19">
-        <v>22.918190622975</v>
+        <v>331.943394542571</v>
       </c>
       <c r="S19">
-        <v>0.04401838620319777</v>
+        <v>0.2712620323559755</v>
       </c>
       <c r="T19">
-        <v>0.03048262479062175</v>
+        <v>0.2728363858404003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H20">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I20">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J20">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N20">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O20">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P20">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q20">
-        <v>0.08308264554375</v>
+        <v>1.3831890568265</v>
       </c>
       <c r="R20">
-        <v>0.332330582175</v>
+        <v>8.299134340959</v>
       </c>
       <c r="S20">
-        <v>0.0009574483531859482</v>
+        <v>0.01017299975750123</v>
       </c>
       <c r="T20">
-        <v>0.0004420204286430009</v>
+        <v>0.006821361281526612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H21">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I21">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J21">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N21">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O21">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P21">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q21">
-        <v>3.96977791855</v>
+        <v>33.95682491321166</v>
       </c>
       <c r="R21">
-        <v>23.8186675113</v>
+        <v>305.611424218905</v>
       </c>
       <c r="S21">
-        <v>0.04574790927460499</v>
+        <v>0.249743713560152</v>
       </c>
       <c r="T21">
-        <v>0.03168031528770317</v>
+        <v>0.2511931787958199</v>
       </c>
     </row>
   </sheetData>
